--- a/Kiviat_Template.xlsx
+++ b/Kiviat_Template.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosulpgc-my.sharepoint.com/personal/pablo_medina109_alu_ulpgc_es/Documents/Universidad/Segundo/Primer Cuatrimestre/HPI/Semana 9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alcampo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{43050AB2-8418-4595-A943-8426743A0F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1DF79C9-76D7-4CAB-A412-3DA05FB98243}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A95E9BB2-E6E7-4D78-B43A-37BE4A527B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accessibility Study" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,6 +37,12 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>https://cabildo.grancanaria.com/</t>
+  </si>
+  <si>
+    <t>https://www.tenerife.es/portalcabtfe/es/</t>
+  </si>
   <si>
     <t>Golden Rules</t>
   </si>
@@ -59,18 +76,12 @@
   <si>
     <t>8. Reduce Short-Term Memory Load</t>
   </si>
-  <si>
-    <t>https://cabildo.grancanaria.com/</t>
-  </si>
-  <si>
-    <t>https://www.tenerife.es/portalcabtfe/es/</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +94,14 @@
       <i/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,8 +238,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -257,11 +277,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,22 +419,22 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -471,13 +492,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1274,6 +1295,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1539,39 +1564,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.19921875" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="12" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>8</v>
@@ -1580,31 +1605,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1613,20 +1638,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -1635,20 +1660,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D10" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -1658,8 +1683,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9C3F2D18-6166-47CF-98E1-EAB8CE22FDC8}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{94AF7C9B-7EBD-4A3A-847B-FD8A47EBAE27}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>